--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ml_lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629543F1-66FD-4DC0-94A0-AEA3B8C7C471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C5DC30-77D7-4643-B079-A7C930A640CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{6E3728D4-265A-4CAF-8F13-4DC270A007CD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BA501D-43AC-4B9E-AE24-5491770A7671}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +442,1030 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/publications.xlsx
+++ b/data/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ml_lab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D183C4D2-E79B-4CB8-826C-E1F61147C744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3F572-2951-4A89-8686-1DC7E9743E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E3728D4-265A-4CAF-8F13-4DC270A007CD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="403">
   <si>
     <t>Efficient Visual Tracking with Exemplar Transformers</t>
   </si>
@@ -1219,13 +1219,28 @@
   </si>
   <si>
     <t>DOI: 10.1109/WACV56688.2023.00293</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>DOI link</t>
+  </si>
+  <si>
+    <t>DOI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,6 +1254,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1248,7 +1271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1256,14 +1279,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1576,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BA501D-43AC-4B9E-AE24-5491770A7671}">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,38 +1624,38 @@
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1631,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1648,13 +1683,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1665,13 +1700,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,13 +1717,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,13 +1734,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1716,13 +1751,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1733,13 +1768,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1750,13 +1785,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,13 +1802,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1801,13 +1836,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,13 +1853,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,13 +1870,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1852,13 +1887,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1869,13 +1904,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1886,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1903,13 +1938,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,13 +1955,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,13 +1989,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,13 +2006,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,13 +2040,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,13 +2057,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,13 +2074,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,13 +2091,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2073,13 +2108,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,13 +2125,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2107,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,13 +2159,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,13 +2176,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,13 +2193,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,13 +2210,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2192,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,13 +2244,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,13 +2261,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,13 +2278,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,13 +2295,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,13 +2346,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2328,13 +2363,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2345,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2362,13 +2397,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2379,13 +2414,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,13 +2431,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2413,13 +2448,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2430,13 +2465,13 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2447,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2464,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2481,13 +2516,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2498,13 +2533,13 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2515,13 +2550,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2532,13 +2567,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2549,13 +2584,13 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,13 +2601,13 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2583,13 +2618,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2617,13 +2652,13 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2634,13 +2669,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,13 +2686,13 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2668,13 +2703,13 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2702,13 +2737,13 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2719,13 +2754,13 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,13 +2771,13 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2753,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,13 +2805,13 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2787,13 +2822,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2804,13 +2839,13 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2821,13 +2856,13 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2838,13 +2873,13 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2855,13 +2890,13 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2872,13 +2907,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2889,13 +2924,13 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E77" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2906,13 +2941,13 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2923,13 +2958,13 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2940,13 +2975,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2957,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2974,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2991,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3025,13 +3060,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,13 +3077,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E86" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3059,13 +3094,13 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3076,13 +3111,13 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3093,13 +3128,13 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3110,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3127,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3144,13 +3179,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3161,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3178,13 +3213,13 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E94" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3195,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E95" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3212,13 +3247,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3229,13 +3264,13 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3246,13 +3281,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D98" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3263,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E99" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3280,13 +3315,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E100" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3297,13 +3332,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E101" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,13 +3349,13 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3331,13 +3366,13 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3348,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E104" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3365,13 +3400,13 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E105" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3382,13 +3417,13 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3399,13 +3434,13 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D107" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E107" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3416,13 +3451,13 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D108" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E108" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3433,13 +3468,13 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D109" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E109" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3450,13 +3485,13 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E110" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3467,13 +3502,13 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E111" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3484,13 +3519,13 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D112" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E112" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3501,13 +3536,13 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D113" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E113" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3518,13 +3553,13 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D114" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E114" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3535,13 +3570,13 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D115" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E115" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3552,13 +3587,13 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D116" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E116" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3569,13 +3604,13 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D117" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E117" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3586,13 +3621,13 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D118" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E118" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3603,13 +3638,13 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D119" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3620,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E120" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3637,13 +3672,13 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D121" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E121" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3654,13 +3689,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D122" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E122" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3671,13 +3706,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D123" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E123" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3688,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D124" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,13 +3740,13 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D125" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E125" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3722,13 +3757,13 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D126" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E126" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3739,13 +3774,13 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D127" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E127" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3756,13 +3791,13 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D128" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,13 +3808,13 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D129" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E129" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,13 +3825,13 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D130" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E130" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3807,13 +3842,13 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D131" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E131" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3824,12 +3859,29 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
+        <v>262</v>
+      </c>
+      <c r="D132" t="s">
+        <v>263</v>
+      </c>
+      <c r="E132" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
         <v>264</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>265</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>397</v>
       </c>
     </row>
